--- a/src/main/java/com/testData/TestData.xlsx
+++ b/src/main/java/com/testData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="14">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="514">
+  <borders count="642">
     <border>
       <left/>
       <right/>
@@ -2423,11 +2423,587 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2559,6 +3135,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="597" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="617" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="621" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="625" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="629" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="637" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="641" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2876,7 +3484,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="127">
+      <c r="D2" t="s" s="159">
         <v>5</v>
       </c>
     </row>
@@ -2890,7 +3498,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="128">
+      <c r="D3" t="s" s="160">
         <v>5</v>
       </c>
     </row>
@@ -2904,7 +3512,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="129">
+      <c r="D4" t="s" s="161">
         <v>5</v>
       </c>
     </row>
@@ -2918,7 +3526,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="130">
+      <c r="D5" t="s" s="162">
         <v>5</v>
       </c>
     </row>

--- a/src/main/java/com/testData/TestData.xlsx
+++ b/src/main/java/com/testData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="14">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="642">
+  <borders count="674">
     <border>
       <left/>
       <right/>
@@ -2999,11 +2999,155 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3167,6 +3311,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="637" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="641" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="645" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="653" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="657" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3484,7 +3636,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="159">
+      <c r="D2" t="s" s="167">
         <v>5</v>
       </c>
     </row>
@@ -3498,7 +3650,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="160">
+      <c r="D3" t="s" s="168">
         <v>5</v>
       </c>
     </row>
@@ -3512,7 +3664,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="161">
+      <c r="D4" t="s" s="169">
         <v>5</v>
       </c>
     </row>
@@ -3526,7 +3678,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="162">
+      <c r="D5" t="s" s="170">
         <v>5</v>
       </c>
     </row>

--- a/src/main/java/com/testData/TestData.xlsx
+++ b/src/main/java/com/testData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="14">
   <si>
     <t>admin@yourstore.com</t>
   </si>
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="674">
+  <borders count="690">
     <border>
       <left/>
       <right/>
@@ -3143,11 +3143,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3319,6 +3391,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="665" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="685" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3636,7 +3712,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="167">
+      <c r="D2" t="s" s="171">
         <v>5</v>
       </c>
     </row>
@@ -3650,7 +3726,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="168">
+      <c r="D3" t="s" s="172">
         <v>5</v>
       </c>
     </row>
@@ -3664,7 +3740,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="169">
+      <c r="D4" t="s" s="173">
         <v>5</v>
       </c>
     </row>
@@ -3678,7 +3754,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="170">
+      <c r="D5" t="s" s="174">
         <v>5</v>
       </c>
     </row>
